--- a/ClosedXML_Tests/Resource/Examples/Misc/AdjustToContents.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/AdjustToContents.xlsx
@@ -2946,7 +2946,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="4">
+  <x:fonts count="3">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -2964,13 +2964,6 @@
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="20"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
       <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
       <x:family val="2"/>

--- a/ClosedXML_Tests/Resource/Examples/Misc/AdjustToContents.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/AdjustToContents.xlsx
@@ -11,6 +11,7 @@
     <x:sheet name="Adjust Widths 2" sheetId="4" r:id="rId4"/>
     <x:sheet name="Adjust Heights" sheetId="5" r:id="rId5"/>
     <x:sheet name="Adjust Heights 2" sheetId="6" r:id="rId6"/>
+    <x:sheet name="Absurdly wide column" sheetId="7" r:id="rId7"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <x:si>
     <x:t>Tall Row</x:t>
   </x:si>
@@ -2937,6 +2938,12 @@
       </x:rPr>
       <x:t>Hello</x:t>
     </x:r>
+  </x:si>
+  <x:si>
+    <x:t>Some string</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -3980,4 +3987,36 @@
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:B1"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="11.920625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="255" style="0" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:2">
+      <x:c r="A1" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
--- a/ClosedXML_Tests/Resource/Examples/Misc/AdjustToContents.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/AdjustToContents.xlsx
@@ -3214,7 +3214,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -3497,7 +3497,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>

--- a/ClosedXML_Tests/Resource/Examples/Misc/AdjustToContents.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/AdjustToContents.xlsx
@@ -3003,7 +3003,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="39">
+  <x:cellStyleXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -3011,114 +3011,6 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>

--- a/ClosedXML_Tests/Resource/Examples/Misc/AdjustToContents.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/AdjustToContents.xlsx
@@ -3400,16 +3400,16 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="30.790625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="28.190625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="14.820625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="23.290625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:2" customFormat="1" ht="41.5039" customHeight="1">
+    <x:row r="1" spans="1:2" customFormat="1" ht="6.8" customHeight="1">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:2" customFormat="1" ht="27.669267" customHeight="1">
+    <x:row r="2" spans="1:2" customFormat="1" ht="6.8" customHeight="1">
       <x:c r="A2" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -3462,25 +3462,25 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="2.930625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="16.150625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="17.315676" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="18.195145" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="17.902475" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="17.495861" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="16.978396" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="16.354019" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="15.627482" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="14.804314" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="13.89078" style="0" customWidth="1"/>
-    <x:col min="12" max="12" width="12.893833" style="0" customWidth="1"/>
-    <x:col min="13" max="13" width="11.82106" style="0" customWidth="1"/>
-    <x:col min="14" max="14" width="10.680625" style="0" customWidth="1"/>
-    <x:col min="15" max="15" width="9.481208" style="0" customWidth="1"/>
-    <x:col min="16" max="16" width="8.231937" style="0" customWidth="1"/>
-    <x:col min="17" max="17" width="6.94232" style="0" customWidth="1"/>
-    <x:col min="18" max="18" width="5.622172" style="0" customWidth="1"/>
-    <x:col min="19" max="19" width="4.281539" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="2.700625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="13.530625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="14.475646" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="15.197835" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="14.958224" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="14.625324" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="14.201671" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="13.690487" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="13.095664" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="12.421729" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="11.67381" style="0" customWidth="1"/>
+    <x:col min="12" max="12" width="10.8576" style="0" customWidth="1"/>
+    <x:col min="13" max="13" width="9.97931" style="0" customWidth="1"/>
+    <x:col min="14" max="14" width="9.045625" style="0" customWidth="1"/>
+    <x:col min="15" max="15" width="8.063651" style="0" customWidth="1"/>
+    <x:col min="16" max="16" width="7.040861" style="0" customWidth="1"/>
+    <x:col min="17" max="17" width="5.985039" style="0" customWidth="1"/>
+    <x:col min="18" max="18" width="4.90422" style="0" customWidth="1"/>
+    <x:col min="19" max="19" width="3.806631" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:19">
@@ -3562,25 +3562,25 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="2.930625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="51.020625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="61.832986" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="61.271495" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="60.340427" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="59.046868" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="57.400662" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="55.414338" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="53.103012" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="50.484276" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="47.57806" style="0" customWidth="1"/>
-    <x:col min="12" max="12" width="44.406482" style="0" customWidth="1"/>
-    <x:col min="13" max="13" width="40.993679" style="0" customWidth="1"/>
-    <x:col min="14" max="14" width="37.365625" style="0" customWidth="1"/>
-    <x:col min="15" max="15" width="33.549931" style="0" customWidth="1"/>
-    <x:col min="16" max="16" width="29.575638" style="0" customWidth="1"/>
-    <x:col min="17" max="17" width="25.472992" style="0" customWidth="1"/>
-    <x:col min="18" max="18" width="21.273217" style="0" customWidth="1"/>
-    <x:col min="19" max="19" width="17.008275" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="2.700625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="23.280625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="27.158545" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="26.912928" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="26.505645" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="25.939795" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="25.219684" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="24.350793" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="23.339735" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="22.194204" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="20.922918" style="0" customWidth="1"/>
+    <x:col min="12" max="12" width="19.535554" style="0" customWidth="1"/>
+    <x:col min="13" max="13" width="18.042669" style="0" customWidth="1"/>
+    <x:col min="14" max="14" width="16.455625" style="0" customWidth="1"/>
+    <x:col min="15" max="15" width="14.786501" style="0" customWidth="1"/>
+    <x:col min="16" max="16" width="13.047999" style="0" customWidth="1"/>
+    <x:col min="17" max="17" width="11.253352" style="0" customWidth="1"/>
+    <x:col min="18" max="18" width="9.416216" style="0" customWidth="1"/>
+    <x:col min="19" max="19" width="7.550574" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:19">
@@ -3662,97 +3662,97 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:1" customFormat="1" ht="304.361925" customHeight="1">
+    <x:row r="1" spans="1:1" customFormat="1" ht="136" customHeight="1">
       <x:c r="A1" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:1" customFormat="1" ht="15.218096" customHeight="1">
+    <x:row r="2" spans="1:1" customFormat="1" ht="6.8" customHeight="1">
       <x:c r="A2" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:1" customFormat="1" ht="7.609048" customHeight="1">
+    <x:row r="3" spans="1:1" customFormat="1" ht="3.4" customHeight="1">
       <x:c r="A3" s="4" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:1" customFormat="1" ht="16.063546" customHeight="1">
+    <x:row r="4" spans="1:1" customFormat="1" ht="7.177778" customHeight="1">
       <x:c r="A4" s="5" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:1" customFormat="1" ht="24.095319" customHeight="1">
+    <x:row r="5" spans="1:1" customFormat="1" ht="10.766667" customHeight="1">
       <x:c r="A5" s="6" t="s">
         <x:v>10</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:1" customFormat="1" ht="32.127092" customHeight="1">
+    <x:row r="6" spans="1:1" customFormat="1" ht="14.355556" customHeight="1">
       <x:c r="A6" s="7" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:1" customFormat="1" ht="40.158865" customHeight="1">
+    <x:row r="7" spans="1:1" customFormat="1" ht="17.944444" customHeight="1">
       <x:c r="A7" s="8" t="s">
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:1" customFormat="1" ht="48.190638" customHeight="1">
+    <x:row r="8" spans="1:1" customFormat="1" ht="21.533333" customHeight="1">
       <x:c r="A8" s="9" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:1" customFormat="1" ht="56.222411" customHeight="1">
+    <x:row r="9" spans="1:1" customFormat="1" ht="25.122222" customHeight="1">
       <x:c r="A9" s="10" t="s">
         <x:v>14</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:1" customFormat="1" ht="64.254184" customHeight="1">
+    <x:row r="10" spans="1:1" customFormat="1" ht="28.711111" customHeight="1">
       <x:c r="A10" s="11" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:1" customFormat="1" ht="72.285957" customHeight="1">
+    <x:row r="11" spans="1:1" customFormat="1" ht="32.3" customHeight="1">
       <x:c r="A11" s="12" t="s">
         <x:v>16</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:1" customFormat="1" ht="80.31773" customHeight="1">
+    <x:row r="12" spans="1:1" customFormat="1" ht="35.888889" customHeight="1">
       <x:c r="A12" s="13" t="s">
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:1" customFormat="1" ht="88.349503" customHeight="1">
+    <x:row r="13" spans="1:1" customFormat="1" ht="39.477778" customHeight="1">
       <x:c r="A13" s="14" t="s">
         <x:v>18</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:1" customFormat="1" ht="96.381276" customHeight="1">
+    <x:row r="14" spans="1:1" customFormat="1" ht="43.066667" customHeight="1">
       <x:c r="A14" s="15" t="s">
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:1" customFormat="1" ht="104.413049" customHeight="1">
+    <x:row r="15" spans="1:1" customFormat="1" ht="46.655556" customHeight="1">
       <x:c r="A15" s="16" t="s">
         <x:v>20</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:1" customFormat="1" ht="112.444822" customHeight="1">
+    <x:row r="16" spans="1:1" customFormat="1" ht="50.244444" customHeight="1">
       <x:c r="A16" s="17" t="s">
         <x:v>21</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:1" customFormat="1" ht="120.476595" customHeight="1">
+    <x:row r="17" spans="1:1" customFormat="1" ht="53.833333" customHeight="1">
       <x:c r="A17" s="18" t="s">
         <x:v>22</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:1" customFormat="1" ht="128.508368" customHeight="1">
+    <x:row r="18" spans="1:1" customFormat="1" ht="57.422222" customHeight="1">
       <x:c r="A18" s="19" t="s">
         <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:1" customFormat="1" ht="136.540141" customHeight="1">
+    <x:row r="19" spans="1:1" customFormat="1" ht="61.011111" customHeight="1">
       <x:c r="A19" s="20" t="s">
         <x:v>24</x:v>
       </x:c>
@@ -3777,97 +3777,97 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:1" customFormat="1" ht="304.361925" customHeight="1">
+    <x:row r="1" spans="1:1" customFormat="1" ht="136" customHeight="1">
       <x:c r="A1" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:1" customFormat="1" ht="83.0078" customHeight="1">
+    <x:row r="2" spans="1:1" customFormat="1" ht="27.2" customHeight="1">
       <x:c r="A2" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:1" customFormat="1" ht="17.293292" customHeight="1">
+    <x:row r="3" spans="1:1" customFormat="1" ht="5.666667" customHeight="1">
       <x:c r="A3" s="4" t="s">
         <x:v>44</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:1" customFormat="1" ht="34.586583" customHeight="1">
+    <x:row r="4" spans="1:1" customFormat="1" ht="11.333333" customHeight="1">
       <x:c r="A4" s="5" t="s">
         <x:v>45</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:1" customFormat="1" ht="51.879875" customHeight="1">
+    <x:row r="5" spans="1:1" customFormat="1" ht="17" customHeight="1">
       <x:c r="A5" s="6" t="s">
         <x:v>46</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:1" customFormat="1" ht="69.173166" customHeight="1">
+    <x:row r="6" spans="1:1" customFormat="1" ht="22.666667" customHeight="1">
       <x:c r="A6" s="7" t="s">
         <x:v>47</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:1" customFormat="1" ht="86.466458" customHeight="1">
+    <x:row r="7" spans="1:1" customFormat="1" ht="28.333333" customHeight="1">
       <x:c r="A7" s="8" t="s">
         <x:v>48</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:1" customFormat="1" ht="103.759749" customHeight="1">
+    <x:row r="8" spans="1:1" customFormat="1" ht="34" customHeight="1">
       <x:c r="A8" s="9" t="s">
         <x:v>49</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:1" customFormat="1" ht="121.053041" customHeight="1">
+    <x:row r="9" spans="1:1" customFormat="1" ht="39.666667" customHeight="1">
       <x:c r="A9" s="10" t="s">
         <x:v>50</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:1" customFormat="1" ht="138.346333" customHeight="1">
+    <x:row r="10" spans="1:1" customFormat="1" ht="45.333333" customHeight="1">
       <x:c r="A10" s="11" t="s">
         <x:v>51</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:1" customFormat="1" ht="155.639624" customHeight="1">
+    <x:row r="11" spans="1:1" customFormat="1" ht="51" customHeight="1">
       <x:c r="A11" s="12" t="s">
         <x:v>52</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:1" customFormat="1" ht="172.932916" customHeight="1">
+    <x:row r="12" spans="1:1" customFormat="1" ht="56.666667" customHeight="1">
       <x:c r="A12" s="13" t="s">
         <x:v>53</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:1" customFormat="1" ht="190.226207" customHeight="1">
+    <x:row r="13" spans="1:1" customFormat="1" ht="62.333333" customHeight="1">
       <x:c r="A13" s="14" t="s">
         <x:v>54</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:1" customFormat="1" ht="207.519499" customHeight="1">
+    <x:row r="14" spans="1:1" customFormat="1" ht="68" customHeight="1">
       <x:c r="A14" s="15" t="s">
         <x:v>55</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:1" customFormat="1" ht="224.81279" customHeight="1">
+    <x:row r="15" spans="1:1" customFormat="1" ht="73.666667" customHeight="1">
       <x:c r="A15" s="16" t="s">
         <x:v>56</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:1" customFormat="1" ht="242.106082" customHeight="1">
+    <x:row r="16" spans="1:1" customFormat="1" ht="79.333333" customHeight="1">
       <x:c r="A16" s="17" t="s">
         <x:v>57</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:1" customFormat="1" ht="259.399374" customHeight="1">
+    <x:row r="17" spans="1:1" customFormat="1" ht="85" customHeight="1">
       <x:c r="A17" s="18" t="s">
         <x:v>58</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:1" customFormat="1" ht="276.692665" customHeight="1">
+    <x:row r="18" spans="1:1" customFormat="1" ht="90.666667" customHeight="1">
       <x:c r="A18" s="19" t="s">
         <x:v>59</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:1" customFormat="1" ht="293.985957" customHeight="1">
+    <x:row r="19" spans="1:1" customFormat="1" ht="96.333333" customHeight="1">
       <x:c r="A19" s="20" t="s">
         <x:v>60</x:v>
       </x:c>
@@ -3892,7 +3892,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="11.920625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="10.130625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="255" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
